--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>buffId</t>
   </si>
@@ -28,6 +28,9 @@
     <t>duration</t>
   </si>
   <si>
+    <t>period</t>
+  </si>
+  <si>
     <t>狂躁</t>
   </si>
   <si>
@@ -39,18 +42,21 @@
   <si>
     <t>治疗</t>
   </si>
+  <si>
+    <t>中毒</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +65,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -75,17 +170,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,112 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -219,13 +218,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,13 +350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,151 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,24 +423,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,8 +456,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +477,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -510,151 +500,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,20 +978,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,6 +1003,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1011,7 +1013,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1025,10 +1027,10 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -1039,27 +1041,47 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>7000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>7000</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="17351" windowHeight="7787"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>buffId</t>
   </si>
@@ -31,19 +31,40 @@
     <t>period</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
     <t>狂躁</t>
   </si>
   <si>
+    <t>[{"type": "ATTACK","value": 100}]</t>
+  </si>
+  <si>
     <t>爆砍</t>
   </si>
   <si>
+    <t>[{"type": "ATTACK","value": 120}]</t>
+  </si>
+  <si>
     <t>眩晕</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>治疗</t>
   </si>
   <si>
+    <t>[{"type": "HP","value": 100},{"type": "MP","value": 100}]</t>
+  </si>
+  <si>
     <t>中毒</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": -90}]</t>
   </si>
 </sst>
 </file>
@@ -51,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,6 +87,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -73,12 +123,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -87,86 +175,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,32 +190,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,37 +239,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,25 +371,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,115 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +430,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,6 +453,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,15 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,49 +530,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,20 +999,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1007,13 +1029,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1021,13 +1049,19 @@
       <c r="D2">
         <v>10000</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1035,13 +1069,19 @@
       <c r="D3">
         <v>10000</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1049,13 +1089,19 @@
       <c r="D4">
         <v>7000</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1066,13 +1112,19 @@
       <c r="E5">
         <v>1000</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1082,6 +1134,12 @@
       </c>
       <c r="E6">
         <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17351" windowHeight="7787"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,6 +86,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -100,10 +146,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,15 +193,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,100 +225,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,25 +239,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,127 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,24 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -486,6 +474,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,26 +524,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -72,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -88,15 +88,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,61 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,30 +177,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -239,19 +239,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,163 +335,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -459,6 +477,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,29 +507,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,25 +530,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -58,7 +58,7 @@
     <t>治疗</t>
   </si>
   <si>
-    <t>[{"type": "HP","value": 100},{"type": "MP","value": 100}]</t>
+    <t>[{"type": "HP","value": 100},{"type": "MP","value": 10}]</t>
   </si>
   <si>
     <t>中毒</t>
@@ -87,22 +87,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -110,6 +94,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -119,6 +119,57 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -129,6 +180,22 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,90 +208,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +239,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,145 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,35 +433,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,15 +468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +489,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -515,31 +530,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -40,7 +40,7 @@
     <t>狂躁</t>
   </si>
   <si>
-    <t>[{"type": "ATTACK","value": 100}]</t>
+    <t>[{"type": "ATTACK_UPPER","value": 300},{"type": "ATTACK_LOWER","value": 300},{"type": "DEFENSE_UPPER","value": 70},{"type": "DEFENSE_LOWER","value": 70}]</t>
   </si>
   <si>
     <t>爆砍</t>
@@ -72,15 +72,75 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -94,17 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,85 +168,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,24 +183,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +239,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,169 +299,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,6 +463,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -472,21 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -498,9 +507,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,27 +530,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1010,7 +1010,7 @@
     <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="53.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="63.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1044,10 +1044,13 @@
         <v>7</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>50000</v>
+      </c>
+      <c r="E2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>buffId</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>mergeTime</t>
   </si>
   <si>
     <t>period</t>
@@ -72,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,22 +90,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +148,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -124,9 +172,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,31 +194,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,17 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,38 +227,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,21 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,16 +455,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,8 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,145 +539,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,21 +1002,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="63.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="63.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,13 +1039,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1053,18 +1060,21 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1072,19 +1082,22 @@
       <c r="D3">
         <v>10000</v>
       </c>
-      <c r="F3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1092,19 +1105,22 @@
       <c r="D4">
         <v>7000</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1113,21 +1129,24 @@
         <v>7000</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1136,13 +1155,16 @@
         <v>20000</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>2000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/BuffResource.xlsx
+++ b/src/main/resources/resource/BuffResource.xlsx
@@ -76,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,23 +89,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,30 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,36 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,9 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,12 +212,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -217,17 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +242,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,19 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,151 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,45 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,19 +477,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -533,16 +518,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1149,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>20000</v>
